--- a/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v071.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v071.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB7C66C-2CF7-414C-AD28-0455F749206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC358A7-D0E5-4F6D-97BE-965067FA5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5693" yWindow="2433" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2679,18 +2679,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2709,6 +2697,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3895,7 +3892,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3950,7 +3949,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
@@ -3959,7 +3958,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="80"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32"/>
@@ -4190,7 +4189,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="73">
+      <c r="D23" s="79">
         <v>153</v>
       </c>
       <c r="E23" s="68"/>
@@ -4201,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="73">
+      <c r="D24" s="79">
         <v>447</v>
       </c>
       <c r="E24" s="35"/>
@@ -4211,7 +4210,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="74">
+      <c r="D25" s="80">
         <v>45468</v>
       </c>
       <c r="E25" s="35"/>
@@ -4221,7 +4220,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="73">
+      <c r="D26" s="79">
         <v>35.321100000000001</v>
       </c>
       <c r="E26" s="68"/>
@@ -4232,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="73">
+      <c r="D27" s="79">
         <v>-119.5808</v>
       </c>
       <c r="E27" s="68"/>
@@ -4243,7 +4242,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="81" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="68"/>
@@ -4299,7 +4298,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="73" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="65"/>
@@ -4310,7 +4309,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="65"/>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="65"/>
@@ -4321,7 +4320,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="73" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="65"/>
@@ -4332,7 +4331,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="64"/>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="73" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="65"/>
@@ -4343,7 +4342,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="73" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="65"/>
@@ -4398,7 +4397,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="64"/>
-      <c r="D40" s="77">
+      <c r="D40" s="74">
         <v>45152</v>
       </c>
       <c r="E40" s="37"/>
@@ -4409,7 +4408,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="65"/>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="73" t="s">
         <v>33</v>
       </c>
       <c r="G41" s="36"/>
@@ -4429,7 +4428,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="65"/>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="73" t="s">
         <v>37</v>
       </c>
       <c r="G43" s="36"/>
@@ -4474,11 +4473,11 @@
       <c r="AG45" s="67"/>
     </row>
     <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
@@ -4487,7 +4486,7 @@
       <c r="B47" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="76">
+      <c r="D47" s="73">
         <v>500</v>
       </c>
       <c r="G47" s="36"/>
@@ -4500,7 +4499,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="76">
+      <c r="D48" s="73">
         <v>35.321100000000001</v>
       </c>
       <c r="E48" s="30"/>
@@ -4511,7 +4510,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="30"/>
-      <c r="D49" s="76">
+      <c r="D49" s="73">
         <v>-119.5808</v>
       </c>
       <c r="E49" s="30"/>
@@ -4542,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="65"/>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="73" t="s">
         <v>45</v>
       </c>
       <c r="G52" s="36"/>
@@ -4579,7 +4578,7 @@
       <c r="B56" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="76" t="s">
+      <c r="D56" s="73" t="s">
         <v>50</v>
       </c>
       <c r="G56" s="36"/>
@@ -4632,7 +4631,7 @@
       <c r="B60" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="73" t="s">
         <v>52</v>
       </c>
       <c r="G60" s="36"/>
@@ -4641,7 +4640,7 @@
       <c r="B61" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="77">
+      <c r="D61" s="74">
         <v>45275</v>
       </c>
       <c r="G61" s="36"/>
@@ -4650,7 +4649,7 @@
       <c r="B62" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="77">
+      <c r="D62" s="74">
         <v>85</v>
       </c>
       <c r="G62" s="36"/>
@@ -4659,7 +4658,7 @@
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="76">
+      <c r="D63" s="73">
         <v>85</v>
       </c>
       <c r="G63" s="36"/>
@@ -4677,7 +4676,7 @@
       <c r="B65" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="73" t="s">
         <v>58</v>
       </c>
       <c r="G65" s="36"/>
@@ -4695,7 +4694,7 @@
       <c r="B67" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="73" t="s">
         <v>61</v>
       </c>
       <c r="G67" s="36"/>
@@ -4712,7 +4711,7 @@
       <c r="B71" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="77">
+      <c r="D71" s="74">
         <v>45276</v>
       </c>
       <c r="G71" s="36"/>
@@ -4721,7 +4720,7 @@
       <c r="B72" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="77">
+      <c r="D72" s="74">
         <v>45277</v>
       </c>
       <c r="G72" s="36"/>
@@ -4731,7 +4730,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="41"/>
-      <c r="D73" s="76" t="s">
+      <c r="D73" s="73" t="s">
         <v>65</v>
       </c>
       <c r="G73" s="36"/>
@@ -4967,7 +4966,7 @@
       <c r="B12" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="75">
         <v>45841</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -4978,7 +4977,7 @@
       <c r="B13" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="75">
         <v>45841</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -4992,7 +4991,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="23"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
@@ -10321,15 +10320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10564,6 +10554,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10576,14 +10575,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10598,6 +10589,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v071.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v071.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC358A7-D0E5-4F6D-97BE-965067FA5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE24362-728B-4D00-959B-AD6DB4709AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5047" yWindow="2473" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$63</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$62</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2696,16 +2696,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4189,7 +4189,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="79">
+      <c r="D23" s="78">
         <v>153</v>
       </c>
       <c r="E23" s="68"/>
@@ -4200,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="79">
+      <c r="D24" s="78">
         <v>447</v>
       </c>
       <c r="E24" s="35"/>
@@ -4210,7 +4210,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="80">
+      <c r="D25" s="79">
         <v>45468</v>
       </c>
       <c r="E25" s="35"/>
@@ -4220,7 +4220,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="79">
+      <c r="D26" s="78">
         <v>35.321100000000001</v>
       </c>
       <c r="E26" s="68"/>
@@ -4231,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="79">
+      <c r="D27" s="78">
         <v>-119.5808</v>
       </c>
       <c r="E27" s="68"/>
@@ -4242,7 +4242,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="80" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="68"/>
@@ -4473,11 +4473,11 @@
       <c r="AG45" s="67"/>
     </row>
     <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
